--- a/doc/新商城功能列表及相关说明20170904.xlsx
+++ b/doc/新商城功能列表及相关说明20170904.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>系统</t>
   </si>
@@ -33,7 +33,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>工时</t>
+    <t>工时(天)</t>
   </si>
   <si>
     <t>商品管理</t>
@@ -280,6 +280,9 @@
   <si>
     <t>商城对客户信息</t>
   </si>
+  <si>
+    <t xml:space="preserve">注:500元/人/天费用  </t>
+  </si>
 </sst>
 </file>
 
@@ -287,9 +290,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -315,6 +318,36 @@
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -342,13 +375,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -378,50 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +429,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -470,6 +473,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,6 +521,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -512,12 +557,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -542,37 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,18 +635,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -614,43 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,6 +719,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -731,15 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -751,36 +769,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,6 +793,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -819,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,133 +834,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1124,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11906250" y="7115175"/>
+          <a:off x="11906250" y="7534275"/>
           <a:ext cx="10800080" cy="5019040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1425,10 +1428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G$1:G$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1481,7 +1484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="214.5" spans="1:6">
+    <row r="3" ht="231" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -1499,7 +1502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="33" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
@@ -1880,7 +1883,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="33" spans="1:6">
+    <row r="32" ht="49.5" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>71</v>
       </c>
@@ -1906,6 +1909,11 @@
       <c r="E33" s="3"/>
       <c r="F33" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/doc/新商城功能列表及相关说明20170904.xlsx
+++ b/doc/新商城功能列表及相关说明20170904.xlsx
@@ -281,7 +281,7 @@
     <t>商城对客户信息</t>
   </si>
   <si>
-    <t xml:space="preserve">注:500元/人/天费用  </t>
+    <t xml:space="preserve">注:600元/人/天费用  </t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
